--- a/041801420/PSP.xlsx
+++ b/041801420/PSP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Breeze\Desktop\soft_engi\textSimilarity\textSimilarity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Breeze\Desktop\soft_engi\textSimilarity\textSimilarity\041801420\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{800CFF6C-C4F3-4EBB-B6A9-9988A208AD87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F2D57F-D0B7-4C12-8B46-7E928494ADD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E903261E-5693-46F5-B103-5305E9354D02}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="41.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +626,9 @@
       <c r="C6" s="2">
         <v>60</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>360</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -638,7 +640,9 @@
       <c r="C7" s="2">
         <v>60</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -650,7 +654,9 @@
       <c r="C8" s="2">
         <v>120</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -662,7 +668,9 @@
       <c r="C9" s="2">
         <v>60</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -674,7 +682,9 @@
       <c r="C10" s="2">
         <v>180</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -686,7 +696,9 @@
       <c r="C11" s="2">
         <v>120</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -698,7 +710,9 @@
       <c r="C12" s="2">
         <v>120</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>420</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -710,7 +724,9 @@
       <c r="C13" s="2">
         <v>120</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -722,7 +738,9 @@
       <c r="C14" s="2">
         <v>60</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -734,7 +752,9 @@
       <c r="C15" s="2">
         <v>30</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -746,7 +766,9 @@
       <c r="C16" s="2">
         <v>60</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -756,7 +778,9 @@
       <c r="C17" s="2">
         <v>1410</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>2050</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
